--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3880.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3880.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.429136215124986</v>
+        <v>2.090940713882446</v>
       </c>
       <c r="B1">
-        <v>2.748316823789183</v>
+        <v>2.397950172424316</v>
       </c>
       <c r="C1">
-        <v>2.791395279132415</v>
+        <v>3.007592916488647</v>
       </c>
       <c r="D1">
-        <v>3.540612969885659</v>
+        <v>5.951735973358154</v>
       </c>
       <c r="E1">
-        <v>1.523428093001941</v>
+        <v>2.499330282211304</v>
       </c>
     </row>
   </sheetData>
